--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDANT PCE\SLR FRONTEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DDF012-CB6D-4166-8993-F6D1E97912AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3DF5C9-78FB-4BA2-A876-A5B96E585B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3810" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI Decision(5,001-10,000)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
   <si>
     <t>Title</t>
   </si>
@@ -28,56 +28,206 @@
     <t>Abstract</t>
   </si>
   <si>
-    <t>Human Decision1</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Human Decision</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>20-year follow-up study of physical morbidity and mortality in relationship to antipsychotic treatment in a nationwide cohort of 62,250 patients with schizophrenia (FIN20)</t>
-  </si>
-  <si>
-    <t>Antipsychotics are effective in preventing relapses of schizophrenia, but it is generally believed that their long-term use is harmful for patients’ physical well-being. However, there are no long-term studies which have verified this view. This nationwide, register-based cohort study aimed to assess the risk of hospitalization due to physical health problems, as a marker for severe physical morbidity, and the risk of all-cause mortality, as well as of cardiovascular and suicidal death, associated with antipsychotic use in all patients treated for schizophrenia in inpatient care between 1972 and 2014 in Finland (N=62,250), with up to 20 years of follow-up (median: 14.1 years). The use of antipsychotic drugs (i.e., use of any antipsychotic compared with non-use) and the use of specific antipsychotics were investigated, and outcomes were somatic and cardiovascular hospitalization, and all-cause, cardiovascular and suicide death. Hospitalization-based outcomes were analyzed by a within-individual design to eliminate selection bias, comparing use and non-use periods in the same individual by stratified Cox model. Mortality outcomes were assessed by traditional between-individual Cox multivariate models. The adjusted hazard ratios (aHRs) for any somatic hospitalization and cardiovascular hospitalization were 1.00 (95% CI: 0.98-1.03) and 1.00 (95% CI: 0.92-1.07) during use of any antipsychotic compared to non-exposure periods within the same individual. The aHRs were 0.48 (95% CI: 0.46-0.51) for all-cause mortality, 0.62 (95% CI: 0.57-0.67) for cardiovascular mortality, and 0.52 (95% CI: 0.43-0.62) for suicide mortality during use vs. non-use of any antipsychotic. The most beneficial mortality outcome was associated with use of clozapine in terms of all-cause (aHR=0.39, 95% CI: 0.36-0.43), cardiovascular (aHR=0.55, 95% CI: 0.47-0.64) and suicide mortality (aHR=0.21, 95% CI: 0.15-0.29). The cumulative mortality rates during maximum follow-up of 20 years were 46.2% for no antipsychotic use, 25.7% for any antipsychotic use, and 15.6% for clozapine use. These data suggest that long-term antipsychotic use does not increase severe physical morbidity leading to hospitalization, and is associated with substantially decreased mortality, especially among patients treated with clozapine.</t>
-  </si>
-  <si>
-    <t>not relevant</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Exclude</t>
   </si>
   <si>
-    <t>Study design</t>
-  </si>
-  <si>
-    <t>20-year nationwide follow-up study on discontinuation of antipsychotic treatment in first-episode schizophrenia</t>
-  </si>
-  <si>
-    <t>Objective: It is generally believed that after the first episode of schizophrenia, the risk of relapse decreases with time in patients who are stabilized. Many treatment guidelines recommend that after stabilization, antipsychotic treatment should be continued for 1-5 years, and longer exposure should be avoided if possible. However, there is no published evidence to substantiate this view. The authors used nationwide databases to investigate this issue. Method: Prospectively gathered nationwide register data were used to study the risk of treatment failure (psychiatric rehospitalization or death) after discontinuation of antipsychotic treatment. Multivariate Cox regression was used to assess outcomes among all patients hospitalized for the first time with a schizophrenia diagnosis in Finland during the period of 1996-2014 (N=8,719). Results: The lowest risk of rehospitalization or death was observed for patients who received antipsychotic treatment continuously (adjusted hazard ratio=1.00), followed by patients who discontinued antipsychotic use immediately after discharge from the first hospital treatment (hazard ratio=1.63,95%CI=1.52-1.75),within1year(hazardratio=1.88, 95% CI=1.57-2.24), within 1-2 years (hazard ratio=2.12, 95% CI=1.43-3.14), within 2-5 years (hazard ratio=3.26, 95% CI=2.07-5.13), and after 5 years (a median of 7.9 years) (hazard ratio=7.28, 95% CI=2.78-19.05). Risk of death was 174%2214% higher among nonusers and patients with early discontinuation of antipsychotics compared with patients who received antipsychotic treatment continuously for up to 16.4 years. Conclusions: Whatever the underlying mechanisms, these results provide evidence that, contrary to general belief, the risk of treatment failure or relapse after discontinuation of antipsychotic use does not decrease as a function of time during the first 8 years of illness, and that long-term antipsychotic treatment is associated with increased survival.</t>
-  </si>
-  <si>
-    <t>A 12-month prospective study on the time to hospitalization and clinical management of a cohort of bipolar type I and schizoaffective bipolar patients</t>
-  </si>
-  <si>
-    <t>Background: Schizoaffective disorder, bipolar type (SAD) and bipolar disorder I (BD) present a large clinical overlap. In a 1-year follow-up, we aimed to evaluate days to hospitalization (DTH) and predictors of relapse in a SAD-BD cohort of patients. Methods: A 1–year, prospective, naturalistic cohort study considering DTH as primary outcome and incidence of direct and indirect measures of psychopathological compensation as secondary outcomes. Kaplan-Meyer survival analysis with Log-rank Mantel-Cox test compared BD/SAD subgroups as to DTH. After bivariate analyses, Cox regression was performed to assess covariates possibly associated with DTH in diagnostic subgroups. Results: Of 836 screened patients, 437 were finally included (SAD = 105; BD = 332). Relapse rates in the SAD sample was n = 26 (24.8%) vs. n = 41 (12.3%) in the BD sample (p = 0.002). Mean ± SD DTH were 312.16 ± 10.6 (SAD) vs. 337.62 ± 4.4 (BD) days (p = 0.002). Patients with relapses showed more frequent suicide acts, violent behaviors, and changes in pharmacological treatments (all p &lt; 0.0005) in comparison to patients without relapse. Patients without relapses had significantly higher mean number of treatments at T0 (p = 0.010). Cox regression model relating the association between diagnosis and DTH revealed that BD had higher rates of suicide attempts (HR = 13.0, 95%CI = 4.0–42.0, p &lt; 0.0005), whereas SAD had higher rates of violent behavior during psychotic episodes (HR = 12.0, 95%CI =.3.3-43.5, p &gt; 0.0005). Conclusions: SAD patients relapse earlier with higher hospitalization rates and violent behavior during psychotic episodes whereas bipolar patients have more suicide attempts. Psychiatric/psychological follow-up visits may delay hospitalizations by closely monitoring symptoms of self- and hetero-aggression.</t>
-  </si>
-  <si>
-    <t>Disease</t>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>PCE ID</t>
+  </si>
+  <si>
+    <t>Author Names</t>
+  </si>
+  <si>
+    <t>Journal name</t>
+  </si>
+  <si>
+    <t>Publication Year</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>First Page</t>
+  </si>
+  <si>
+    <t>Last Page</t>
+  </si>
+  <si>
+    <t>Publication Type</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Exclusion reason</t>
+  </si>
+  <si>
+    <t>AI Response</t>
+  </si>
+  <si>
+    <t>Conflict</t>
+  </si>
+  <si>
+    <t>Blood pressure and renal function response in essential hypertension patients, treated with propanolol and submitted to different sodium diets (author's transl)</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>Chávez de los Ríos J.M., Otero F.C., Chávez A.N., Alfaro L.C., Gatica V.L.</t>
+  </si>
+  <si>
+    <t>Revista de investigación clínica; organo del Hospital de Enfermedades de la Nutrición</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Embase</t>
+  </si>
+  <si>
+    <t>Gunjan</t>
+  </si>
+  <si>
+    <t>12/15/2023</t>
+  </si>
+  <si>
+    <t>Abstract Missing</t>
+  </si>
+  <si>
+    <t>Health behaviors of breast cancer survivors with hypertension: A propensity analysis of KNHANES III-V (2005-2012)</t>
+  </si>
+  <si>
+    <t>Objective: This study examines health behaviors of breast cancer survivors with hypertension and compares them with those of non-cancer individuals with hypertension. Methods: In this cross-sectional study, a total of 10,996 hypertensive adults (&gt; 19 years) who participated in the 2005-2012 Korean National Health and Nutrition Examination Survey (KNHANES) were considered. Data on alcohol consumption, smoking, physical activity, antihypertensive medication adherence, self-reported diet control, and sodium intake were collected through self-report questionnaire. A total of 64 breast cancer survivors with hypertension and 10,932 non-cancer participants with hypertension were identified. To better compare health behaviors of the two groups, 56 breast cancer survivors and 280 non-cancer participants were selected through the 1:5 nearest available matching based on estimated propensity scores. Multivariate analysis was conducted to determine any differences between the two groups. Results: According to multivariate analysis, breast cancer survivors with hypertension (n = 56) were significantly less likely to consume alcohol (odds ratio (OR): 3.75; 95% confidence interval (CI): 1.06-13.29) but significantly more likely to have sodium intake of more than 2400 mg (OR: 2.98; 95% CI: 1.27-6.97) than the propensity-matched control group (n = 280). There was no significant difference in other health behaviors between the two groups. Conclusions: Breast cancer survivors require active interventions for healthy behaviors related to the management of comorbid conditions such as hypertension to reduce the risk of cardiovascular disease and improve their overall survival rate.</t>
+  </si>
+  <si>
+    <t>Jeong J.-R., Kim S., Jo S.-R., Joh J.-Y., Kim Y.-P.</t>
+  </si>
+  <si>
+    <t>PLoS ONE</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0127346</t>
+  </si>
+  <si>
+    <t>Salt enhances responsiveness of terminal aortic vascular bed to sympathetic activity</t>
+  </si>
+  <si>
+    <t>Objective: Haemodynamic and laboratory examinations were performed in 27 essential hypertensives. The participation of the sympathetic system was estimated from the percentage decrease in regional vascular resistance caused by 1 mg prazosin, during varied salt intake (50-80 mEq sodium per day for 9 weeks, followed by 220-250 mEq sodium per day for 10 days), with or without benidipine. Results: During low salt intake, terminal aortic and renal resistances were decreased by prazosin, but superior mesenteric resistance remained unchanged. In the salt-sensitive patients, whose mean arterial pressure increased more than 5 mmHg with salt repletion, salt loading increased superior mesenteric and renal resistances but did not change terminal aortic resistance. This salt-induced vasoconstriction of renal and superior mesenteric arteries is not related to an increase in sympathetic activity, because both plasma noradrenaline concentrations and the percentage decrease in these regional vascular resistances by prazosin remained unchanged after salt loading. On the other hand, terminal aortic area demonstrated an increase in responsiveness to noradrenaline (increased response to prazosin) with salt loading in spite of unchanged terminal aortic resistance. This salt-induced increase in sympathetic responsiveness in the terminal aortic area was inhibited with the addition of benidipine, which abolished development of salt-induced hypertension and its accompanying haemodynamic responses.</t>
+  </si>
+  <si>
+    <t>Shimamoto H., Shimamoto Y.</t>
+  </si>
+  <si>
+    <t>European Journal of Clinical Pharmacology</t>
+  </si>
+  <si>
+    <t>10.1007/s002280050299</t>
+  </si>
+  <si>
+    <t>Dietary sodium to potassium ratio and risk of stroke in a multiethnic urban population the northern Manhattan study</t>
+  </si>
+  <si>
+    <t>Background and Purpose-There is growing evidence that increased dietary sodium (Na) intake increases the risk of vascular diseases, including stroke, at least in part via an increase in blood pressure. Higher dietary potassium (K), seen with increased intake of fruits and vegetables, is associated with lower blood pressure. The goal of this study was to determine the association of a dietary Na:K with risk of stroke in a multiethnic urban population. Methods-Stroke-free participants from the Northern Manhattan Study, a population-based cohort study of stroke incidence, were followed-up for incident stroke. Baseline food frequency questionnaires were analyzed for Na and K intake. We estimated the hazard ratios and 95% confidence intervals for the association of Na:K with incident total stroke using multivariable Cox proportional hazards models. Results-Among 2570 participants with dietary data (mean age, 69±10 years; 64% women; 21% white; 55% Hispanic; 24% black), the mean Na:K ratio was 1.22±0.43. Over a mean follow-up of 12 years, there were 274 strokes. In adjusted models, a higher Na:K ratio was associated with increased risk for stroke (hazard ratio, 1.6; 95% confidence interval, 1.2-2.1) and specifically ischemic stroke (hazard ratio, 1.6; 95% confidence interval, 1.2-2.1). Conclusions-Na:K intake is an independent predictor of stroke risk. Further studies are required to understand the joint effect of Na and K intake on risk of cardiovascular disease.</t>
+  </si>
+  <si>
+    <t>Willey J., Gardener H., Cespedes S., Cheung Y.K., Sacco R.L., Elkind M.S.V.</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>10.1161/STROKEAHA.117.017963</t>
+  </si>
+  <si>
+    <t>Urinary biochemical markers of dietary intake in the INTERSALT study</t>
+  </si>
+  <si>
+    <t>The INTERSALT Study, an international, collaborative, cross-sectional investigation of the relation between blood pressure and dietary and other factors, used quality-controlled, standardized procedures and assessment of multiple possible confounding factors to study 10 079 men and women in 52 population-based samples in 32 countries. In this study 24-h urinary excretion data were used as biochemical markers of intakes of sodium, potassium, and protein, with repeat examinations done in a randomly selected 8% of participants to assess reliability and correct for regression-dilution bias. INTERSALT showed that high salt intake, low potassium intake, excess alcohol consumption, and energy imbalance resulting in overweight are critically involved in the origins of the high blood pressure prevalent among a majority of adult populations. The findings also show that obtaining accurate estimates of associations between dietary intake and blood pressure requires large population-based samples, high-quality dietary information, control for multiple confounding variables, and modern multivariate methods of data analyses, including correction of observed associations for within- person variation in intake.</t>
+  </si>
+  <si>
+    <t>Dyer A., Elliott P., Chee D., Stamler J.</t>
+  </si>
+  <si>
+    <t>American Journal of Clinical Nutrition</t>
+  </si>
+  <si>
+    <t>4 SUPPL.</t>
+  </si>
+  <si>
+    <t>Conference Paper</t>
+  </si>
+  <si>
+    <t>10.1093/ajcn/65.4.1246S</t>
+  </si>
+  <si>
+    <t>Association between 24-h urinary sodium excretion and obesity in Korean adults: A multicenter study</t>
+  </si>
+  <si>
+    <t>Objective The aim of this study was to explore the association between sodium intake, as assessed by 24-h urinary sodium excretion, and various obesity parameters among South Korean adults. The associations of 24-h urinary sodium excretion and sodium intake calculated from the dietary questionnaire with obesity parameters also were compared. Methods This multicenter, cross-sectional study analyzed data of 640 healthy adults from eight provinces in South Korea. Obesity was assessed by body mass index (BMI), waist circumference (WC), waist-to-hip ratio (WHR), and waist-to-height ratio (WHtR). Mean 24-h urinary sodium excretion was calculated from repeatedly collected 24-h urine samples. Participants’ dietary intake was assessed by 24-h dietary recall interview on the days before 24-h urine collection. Results In both sexes, the means of all anthropometric measurements tended to increase proportionally with 24-h urinary sodium excretion quartiles, regardless of adjustment. Men in the highest quartile (Q4) of 24-h urinary sodium excretion had increased odds of obesity (as assessed by BMI, WC, WHR, and WHtR) compared with men in the three lower quartiles (Q1–Q3) of 24-h urinary sodium excretion. Women in Q4 of 24-h urinary sodium excretion exhibited a higher chance of general obesity and abdominal obesity. Sodium intake calculated from the dietary questionnaire was not significantly associated with obesity in either sex. Conclusions In Korean adults, there was a positive association between higher sodium intake as assessed by 24-h urinary sodium excretion and obesity independent of energy intake.</t>
+  </si>
+  <si>
+    <t>Nam G.E., Kim S.M., Choi M.-K., Heo Y.-R., Hyun T.-S., Lyu E.-S., Oh S.-Y., Park H.-R., Ro H.-K., Han K., Lee Y.K.</t>
+  </si>
+  <si>
+    <t>Nutrition</t>
+  </si>
+  <si>
+    <t>10.1016/j.nut.2017.04.006</t>
+  </si>
+  <si>
+    <t>High sodium, low potassium intake and changes of blood pressure category during 7.5 years follow-up period</t>
+  </si>
+  <si>
+    <t>Objective: Our aim was to analyze association of sodium and potassium intake on clinical course i.e. changes of blood pressure (BP) category in general population during the 7.5 years of follow up. Design and method: Out of 1582 subjects (random rural sample) enrolled in ENAH study conducted in 2008-2010, 739 were invited for the second visit in 2015 and 377 subjects with reliable both urine samples (urine creatinine in normal ranges) were included in further analyses s (80m 297w; average age 52 ± 13.5). Blood pressure was measured three times (Omron M6) and mean values were calculated. Fasting blood and first morning (spot) urine samples were collected. Sodium and potassium were determined using Tanaka, Kawasaki and Intersalt equations. Potassium intake was further adjusted for intestinal intake (77%) and renal excretion (92%). Optimal, normal, high normal BP, untreated and treated hypertension (HT) were diagnosed in 20.9%, 15.3%, 12.9%, 19.1% and 31.5%, respectively. Results: Out of 377 subjects 185 (49%) worsened (WBP) and 47 (12.5%) improved BP (IBP) category. We failed to find differences between WBP and IBP in gender, BMI and eGFR. OBP and untreated HT worsened BP and treated HT improved BP more frequently than others. At basal there were no differences in sodium and potassium intake between WBP and IBP category. At the follow up visit sodium and potassium intake were higher in WBP than in IBP group (Tanaka 175.8 ± 39.3 vs 132.8 ± 33.6; p = 0.061, 38.6 ± 8.3 vs 35.6 ± 7.4; p = 0.027) with no differences in potassium intake and Na/K ratio. Salt intake &gt;10 g/day was significantly more frequently found in WBP than in IBP (51% vs. 34.7%; X2 = 4.918; p = 0.047). Conclusions: Worsened BP category was associated with higher salt intake. Subjects with optimal BP and untreated hypertension most frequently worsened BP and changed BP category. Very low average potassium intake (&lt;1.5 g/day in the whole group) is plausible explanation why beneficial effect of potassium intake on BP clinical course was not observed. To lower salt intake and to increase potassium intake should be recommended to general population and not only to hypertensives.</t>
+  </si>
+  <si>
+    <t>Krtalic B., Milicic B., Gellineo L., Knezevic T., Jelakovic A., Premuzic V., Dapic K., Matasin M., Fucek M., Josipovic J., Dika Z., Kos J., Karanovic S., Jelakovic B.</t>
+  </si>
+  <si>
+    <t>Journal of Hypertension</t>
+  </si>
+  <si>
+    <t>e187</t>
+  </si>
+  <si>
+    <t>Conference Abstract</t>
+  </si>
+  <si>
+    <t>Impact of renal denervation on tissue Na(+) content in treatment-resistant hypertension</t>
+  </si>
+  <si>
+    <t>Objectives: Renal denervation (RDN) has been introduced for reducing blood pressure (BP) in treatment-resistant hypertension (TRH). The precise mechanism how RDN exerts its BP-lowering effects are not yet fully understood. It is widely accepted that sodium (Na(+)) plays a crucial role in the pathogenesis of hypertensive disease. However, there is increasing evidence of osmotically inactive Na(+) storage. We investigated the impact of RDN on Na(+) homeostasis using estimation of salt intake, and measurement of tissue Na(+) content. Methods: In a study 41 patients with TRH (office BP ≥140/90 mmHg and diagnosis confirmed by 24-h ambulatory BP monitoring) underwent RDN. Tissue Na(+) content was assessed non-invasively with 3.0 T magnetic resonance imaging before and 6 months after RDN. In addition, 24-h urinary Na(+) excretion as an estimate of salt intake and spot urine Na(+)/K(+) excretion were assessed. The study was registered at http://www.clinicaltrials.gov (ID: NCT01687725). Results: There was a significant fall in BP (office: −17 ± 20/−10 ± 12 mmHg; 24-h: −11 ± 13/−6 ± 9 mmHg, all p &lt; 0.001) 6 months after RDN. In contrast, tissue Na(+) content of the muscle (20.1 ± 3.9 vs. 20.7 ± 4.0 mmol/L, p = 0.229) and skin (24.4 ± 6.5 vs. 24.8 ± 6.6 mmol/L, p = 0.695) did not change after RDN. Moreover, there was also no change in salt intake after RDN, whereas Na(+)/K(+) ratio only acutely increased. Conclusions: Although RDN resulted in a substantial reduction of BP, tissue Na(+) content of the muscle and skin was not mobilized and reduced. These data indicate that the BP reduction after RDN is unrelated to Na(+) homeostasis.</t>
+  </si>
+  <si>
+    <t>Ott C., Kopp C., Dahlmann A., Schmid A., Linz P., Cavallaro A., Hammon M., Ditting T., Veelken R., Uder M., Titze J., Schmieder R.E.</t>
+  </si>
+  <si>
+    <t>Clinical Research in Cardiology</t>
+  </si>
+  <si>
+    <t>10.1007/s00392-017-1156-4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,16 +243,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -114,12 +272,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF222B35"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -142,22 +300,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection sqref="A1:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -510,84 +709,578 @@
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5003</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1980</v>
+      </c>
+      <c r="I2" s="7">
+        <v>32</v>
+      </c>
+      <c r="J2" s="7">
+        <v>4</v>
+      </c>
+      <c r="K2" s="7">
+        <v>451</v>
+      </c>
+      <c r="L2" s="7">
+        <v>457</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="9"/>
+      <c r="U2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5006</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I3" s="7">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J3" s="7">
+        <v>5</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5012</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1997</v>
+      </c>
+      <c r="I4" s="7">
+        <v>52</v>
+      </c>
+      <c r="J4" s="7">
+        <v>5</v>
+      </c>
+      <c r="K4" s="7">
+        <v>343</v>
+      </c>
+      <c r="L4" s="7">
+        <v>349</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="9"/>
+      <c r="U4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5013</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I5" s="7">
+        <v>48</v>
+      </c>
+      <c r="J5" s="7">
         <v>11</v>
       </c>
+      <c r="K5" s="7">
+        <v>2979</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2983</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5016</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1997</v>
+      </c>
+      <c r="I6" s="7">
+        <v>65</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="10" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5021</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I7" s="7">
+        <v>41</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7">
+        <v>113</v>
+      </c>
+      <c r="L7" s="7">
+        <v>119</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5027</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2019</v>
+      </c>
+      <c r="I8" s="7">
+        <v>37</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="9"/>
+      <c r="U8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5034</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2018</v>
+      </c>
+      <c r="I9" s="7">
+        <v>107</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>42</v>
+      </c>
+      <c r="L9" s="7">
+        <v>48</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="9"/>
+      <c r="U9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="10" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
